--- a/results/pseudomonas_putida/Myristic_acid_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Myristic_acid_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc_e7.44-control_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ttdca_e3.19-myristic_acid_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc_e7.44-control" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ttdca_e3.19-myristic_acid" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,64 +458,64 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.61894579602088e-31</v>
+        <v>7.643330979115081e-55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8518518518518519</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.280903059398739e-29</v>
+        <v>6.255778869830365e-18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.09015179756136e-21</v>
+        <v>1.338744913333796e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9333333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -523,151 +523,151 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.004242417714172e-21</v>
+        <v>1.739609609669087e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.088790755471315e-20</v>
+        <v>5.716968819937639e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.78</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8787878787878788</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.507477683731369e-17</v>
+        <v>7.901627480942975e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8620689655172413</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8620689655172413</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.95391915824677e-17</v>
+        <v>1.96864177821439e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9166666666666666</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.035961854644604e-16</v>
+        <v>1.96864177821439e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6346153846153846</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6346153846153846</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.198186724662498e-15</v>
+        <v>3.924859917792928e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.95559034178151e-13</v>
+        <v>9.665169436659605e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.356813686898976e-13</v>
+        <v>1.220112567692793e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8260869565217391</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -675,778 +675,778 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.037705142470481e-12</v>
+        <v>3.03517327898301e-06</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.542694754888943e-12</v>
+        <v>3.03517327898301e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7241379310344828</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7241379310344828</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.536666695392192e-12</v>
+        <v>0.0001156389016659993</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3630573248407643</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3630573248407643</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.054653837095286e-11</v>
+        <v>0.0001532395747723441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3875968992248062</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3875968992248062</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.403387251346605e-11</v>
+        <v>0.0002869339413787295</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.403387251346605e-11</v>
+        <v>0.0003115536796597493</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.445550528095417e-11</v>
+        <v>0.0003115536796597493</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7826086956521739</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.78302916087278e-11</v>
+        <v>0.0003526773793052422</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7142857142857143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.155431685980662e-10</v>
+        <v>0.001763912821627005</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.699840483364085e-10</v>
+        <v>0.001763912821627005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9285714285714286</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.174410605898808e-10</v>
+        <v>0.001763912821627005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5306122448979592</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5306122448979592</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.703069536003124e-10</v>
+        <v>0.0018285892987933</v>
       </c>
       <c r="D24" t="n">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="E24" t="n">
-        <v>0.52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0018285892987933</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E25" t="n">
         <v>10</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5.946682019210483e-10</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.635440548994594e-10</v>
+        <v>0.002137902947909678</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.635440548994594e-10</v>
+        <v>0.004287843970666957</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.555406280484051e-09</v>
+        <v>0.004370135158585651</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.587324121109983e-09</v>
+        <v>0.004370135158585651</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.900475793685216e-09</v>
+        <v>0.004370135158585651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9166666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.900475793685216e-09</v>
+        <v>0.006429244042123384</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.124108875072704e-08</v>
+        <v>0.008421332007007102</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.124108875072704e-08</v>
+        <v>0.00848846679698451</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.347402853632998e-08</v>
+        <v>0.009130061091120054</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9090909090909091</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.347402853632998e-08</v>
+        <v>0.009130061091120054</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9090909090909091</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.572677397902439e-07</v>
+        <v>0.01021817743212625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7857142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.140264970395061e-07</v>
+        <v>0.01021817743212625</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.263417922495538e-07</v>
+        <v>0.01082163977405701</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.464710891685389e-06</v>
+        <v>0.01082163977405701</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.464710891685389e-06</v>
+        <v>0.01504600699207685</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.676309763349739e-06</v>
+        <v>0.01899002386277837</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8888888888888888</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.676309763349739e-06</v>
+        <v>0.03653371672408263</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8888888888888888</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.676309763349739e-06</v>
+        <v>0.05263969344798994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8888888888888888</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.779161986711787e-06</v>
+        <v>0.06625701751661509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.631578947368421</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.631578947368421</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.842729589378945e-06</v>
+        <v>0.1007583970291045</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5600000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.019226001037337e-06</v>
+        <v>0.1007583970291045</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4857142857142857</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.08923944561897e-05</v>
+        <v>0.1846767075104011</v>
       </c>
       <c r="D47" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="E47" t="n">
-        <v>0.55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1846767075104011</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E48" t="n">
         <v>4</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>6.130526718606445e-05</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.838363414682465e-05</v>
+        <v>0.3206637864775915</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0001167118111574451</v>
+        <v>0.3331842546794795</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0001626204081184471</v>
+        <v>0.3789583094046401</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4782608695652174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0004665190255906074</v>
+        <v>0.4000065623242602</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0004665190255906074</v>
+        <v>0.4171358172724191</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1454,379 +1454,379 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0004665190255906074</v>
+        <v>0.4657475922716096</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.001107559317777714</v>
+        <v>0.4657475922716096</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7142857142857143</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.001194375414528989</v>
+        <v>0.5332289987685273</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3611111111111111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.004951825216825765</v>
+        <v>0.6118070473736648</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4375</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.005456711782244143</v>
+        <v>0.6303922924113111</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6666666666666666</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01459079287517125</v>
+        <v>0.6458804712810071</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4545454545454545</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.02520555932922487</v>
+        <v>0.6976364019505921</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.03156584724304878</v>
+        <v>0.7744554997553162</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3846153846153846</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1058301690087836</v>
+        <v>0.7944577714945784</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1058301690087836</v>
+        <v>0.9463950674124725</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1347555398903687</v>
+        <v>0.9717514709779295</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.335483870967742</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3333333333333333</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.147196261682243</v>
+        <v>0.9824975773390799</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.2141347631326365</v>
+        <v>0.9934807285457661</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2272727272727273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2168926597546314</v>
+        <v>0.9998959679611026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5490683960613212</v>
+        <v>0.9999358653930183</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6155035433226594</v>
+        <v>0.9999773513915096</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1666666666666667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.632653549134465</v>
+        <v>0.9999987200282402</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1428571428571428</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7590762385005477</v>
+        <v>0.9999998435204267</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1153846153846154</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7616822909000123</v>
+        <v>0.9999999016691133</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1111111111111111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.8162074707134943</v>
+        <v>0.9999999999984169</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1834,41 +1834,41 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8267799922061714</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09090909090909091</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9885537347880852</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03571428571428571</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,12 +1878,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1973,31 +1973,31 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2011,12 +2011,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,35 +2087,35 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,7 +2125,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,349 +2228,349 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.359138977679848e-32</v>
+        <v>1.402371446931235e-54</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9407894736842105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.389610336447647e-22</v>
+        <v>4.106988832124743e-21</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.45635119602487e-21</v>
+        <v>2.648429663768836e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.454947567365967e-21</v>
+        <v>2.648429663768836e-08</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.576381605487715e-19</v>
+        <v>1.790141394300822e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6875</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.31587842507652e-17</v>
+        <v>2.081656747501108e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6346153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6346153846153846</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.003216965415557e-16</v>
+        <v>5.504580987890208e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.260379769492838e-15</v>
+        <v>5.830640486029546e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7272727272727273</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.246106452186102e-13</v>
+        <v>8.680123857863148e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7241379310344828</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.808157666220393e-12</v>
+        <v>3.566687532038538e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7826086956521739</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.945388876611838e-12</v>
+        <v>7.241509069528999e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.945388876611838e-12</v>
+        <v>7.661936881809994e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.809886597814329e-11</v>
+        <v>9.959420304773636e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.827405188729702e-11</v>
+        <v>0.0001867773916490248</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6785714285714286</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.631036779036235e-11</v>
+        <v>0.0006274094829727244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9285714285714286</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.731344479544314e-11</v>
+        <v>0.0006749401525938952</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.9</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7391304347826086</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.206625193543582e-11</v>
+        <v>0.000775126600259432</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6551724137931034</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6551724137931034</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.559333783595931e-10</v>
+        <v>0.000775126600259432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5102040816326531</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5102040816326531</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2521,18 +2578,18 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.773783902127113e-10</v>
+        <v>0.000775126600259432</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2540,835 +2597,835 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.398187040405032e-10</v>
+        <v>0.001073308672590328</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8666666666666667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.463718501540917e-10</v>
+        <v>0.001417420998577057</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3410852713178295</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3410852713178295</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.374002202568199e-09</v>
+        <v>0.002081176574053099</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.615990460361386e-09</v>
+        <v>0.002160443510837597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.87695915881486e-09</v>
+        <v>0.002160443510837597</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9166666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.87695915881486e-09</v>
+        <v>0.003149381794588934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9166666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.063033737502276e-08</v>
+        <v>0.004255498126287312</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.063033737502276e-08</v>
+        <v>0.004255498126287312</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.063033737502276e-08</v>
+        <v>0.006017937024468499</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.075935029385807e-08</v>
+        <v>0.007479283784618627</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8461538461538461</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.334024032612307e-08</v>
+        <v>0.007729085255982357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.65</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9090909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.334024032612307e-08</v>
+        <v>0.01047234497430658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9090909090909091</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.334024032612307e-08</v>
+        <v>0.01462936417617894</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9090909090909091</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.428500301667926e-08</v>
+        <v>0.01522338600410715</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7857142857142857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.999132566044634e-08</v>
+        <v>0.01525794602087794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5517241379310345</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.593735122692198e-07</v>
+        <v>0.02002859146873686</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4857142857142857</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.15827747685238e-07</v>
+        <v>0.02912288551836438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5600000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.760861142155401e-07</v>
+        <v>0.03035739094711924</v>
       </c>
       <c r="D38" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.631578947368421</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6.339985943245179e-07</v>
+        <v>0.04660814380268464</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.339985943245179e-07</v>
+        <v>0.05002000596664924</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.54261042447159e-07</v>
+        <v>0.07093924434591685</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8888888888888888</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.54261042447159e-07</v>
+        <v>0.1361742040035345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8888888888888888</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.35387539163697e-07</v>
+        <v>0.1361742040035345</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7142857142857143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.822222536636526e-06</v>
+        <v>0.1775911641801831</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5416666666666666</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.496906379667155e-05</v>
+        <v>0.2056216556943391</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6666666666666666</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.026419106510063e-05</v>
+        <v>0.2508972041376371</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.040731122294288e-05</v>
+        <v>0.2707634380442782</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8571428571428571</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.799723226883882e-05</v>
+        <v>0.3153089350591096</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3888888888888889</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0002893793544384884</v>
+        <v>0.373328605718122</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0002893793544384884</v>
+        <v>0.373328605718122</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0002893793544384884</v>
+        <v>0.3853255338509488</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0006286776985027147</v>
+        <v>0.4050173265058968</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7142857142857143</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.002420415083244897</v>
+        <v>0.5906011885009601</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.002478293439720578</v>
+        <v>0.6997735500463158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4375</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.003486450196524544</v>
+        <v>0.8192775412175861</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3290322580645161</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6666666666666666</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.005370082810969903</v>
+        <v>0.832521627122605</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01811214038437476</v>
+        <v>0.8477766028954475</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.08539838459479626</v>
+        <v>0.8697017322639062</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5</v>
+        <v>0.28125</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.08539838459479626</v>
+        <v>0.9315401600935691</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.1306613946800863</v>
+        <v>0.9541346479362597</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.16486043754014</v>
+        <v>0.95555285553916</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2727272727272727</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2324021501208017</v>
+        <v>0.956242889043031</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1528662420382166</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1528662420382166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.2815074680230132</v>
+        <v>0.9751511593594701</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E63" t="n">
-        <v>0.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.3221502295305805</v>
+        <v>0.9868767495826278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1818181818181818</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3376,75 +3433,75 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5631644690917923</v>
+        <v>0.9884958623513141</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6792160232055395</v>
+        <v>0.9915191394160455</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1153846153846154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7570379737027347</v>
+        <v>0.999533877929927</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7859907636921419</v>
+        <v>0.9998478277648799</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09090909090909091</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3452,79 +3509,79 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9803735952898113</v>
+        <v>0.9999914561892196</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03571428571428571</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.9999985977831628</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0.9999999998061463</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.9999999999995447</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.152073732718894</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3534,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3553,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3572,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3591,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3610,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3629,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3648,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3667,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3686,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3705,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3724,35 +3781,35 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3762,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3781,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3800,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3819,12 +3876,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3838,7 +3895,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Murein Recycling</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Transport__Outer_Membrane</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.06622516556291391</v>
+      </c>
+      <c r="E92" t="n">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/results/pseudomonas_putida/Myristic_acid_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Myristic_acid_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -667,11 +667,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -686,11 +686,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -705,7 +705,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -762,11 +762,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -781,11 +781,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -800,7 +800,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -876,11 +876,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -895,11 +895,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -914,7 +914,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -952,11 +952,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -971,11 +971,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -990,7 +990,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1066,11 +1066,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1085,11 +1085,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1104,11 +1104,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1123,11 +1123,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1142,7 +1142,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1275,11 +1275,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1294,11 +1294,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1313,7 +1313,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1826,11 +1826,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1864,11 +1864,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,35 +1878,35 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,35 +1916,35 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="E79" t="n">
-        <v>40</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,12 +1954,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1978,30 +1978,30 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Extracellular exchange</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06609195402298851</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>348</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,35 +2087,35 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0695364238410596</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>302</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2163,12 +2163,12 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2532,11 +2532,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2551,11 +2551,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2570,7 +2570,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2703,11 +2703,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2722,11 +2722,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2741,7 +2741,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2988,11 +2988,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3007,11 +3007,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3026,7 +3026,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3121,11 +3121,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3140,11 +3140,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3159,7 +3159,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3577,11 +3577,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3610,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3634,11 +3634,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3648,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3686,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3724,12 +3724,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3748,11 +3748,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3781,35 +3781,35 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Extracellular exchange</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0603448275862069</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>348</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3838,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3857,31 +3857,31 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3900,30 +3900,30 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3933,26 +3933,26 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06622516556291391</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>302</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
